--- a/stock_predictor_ai/data/cleaned/CPAY.xlsx
+++ b/stock_predictor_ai/data/cleaned/CPAY.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3650"/>
+  <dimension ref="A1:F3651"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73449,6 +73449,26 @@
         <v>54000</v>
       </c>
     </row>
+    <row r="3651">
+      <c r="A3651" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B3651" t="n">
+        <v>333.7799987792969</v>
+      </c>
+      <c r="C3651" t="n">
+        <v>335.0350036621094</v>
+      </c>
+      <c r="D3651" t="n">
+        <v>333.0650024414062</v>
+      </c>
+      <c r="E3651" t="n">
+        <v>334.0199890136719</v>
+      </c>
+      <c r="F3651" t="n">
+        <v>9343</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/CPAY.xlsx
+++ b/stock_predictor_ai/data/cleaned/CPAY.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3651"/>
+  <dimension ref="A1:F3652"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73469,6 +73469,26 @@
         <v>9343</v>
       </c>
     </row>
+    <row r="3652">
+      <c r="A3652" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B3652" t="n">
+        <v>319.6099853515625</v>
+      </c>
+      <c r="C3652" t="n">
+        <v>326.4100036621094</v>
+      </c>
+      <c r="D3652" t="n">
+        <v>319.4200134277344</v>
+      </c>
+      <c r="E3652" t="n">
+        <v>326.3999938964844</v>
+      </c>
+      <c r="F3652" t="n">
+        <v>384100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/CPAY.xlsx
+++ b/stock_predictor_ai/data/cleaned/CPAY.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3652"/>
+  <dimension ref="A1:F3653"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73489,6 +73489,26 @@
         <v>384100</v>
       </c>
     </row>
+    <row r="3653">
+      <c r="A3653" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B3653" t="n">
+        <v>333.8349914550781</v>
+      </c>
+      <c r="C3653" t="n">
+        <v>334.3049926757812</v>
+      </c>
+      <c r="D3653" t="n">
+        <v>331.2200012207031</v>
+      </c>
+      <c r="E3653" t="n">
+        <v>334.6600036621094</v>
+      </c>
+      <c r="F3653" t="n">
+        <v>26137</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/CPAY.xlsx
+++ b/stock_predictor_ai/data/cleaned/CPAY.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3653"/>
+  <dimension ref="A1:F3654"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73509,6 +73509,26 @@
         <v>26137</v>
       </c>
     </row>
+    <row r="3654">
+      <c r="A3654" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B3654" t="n">
+        <v>318.1700134277344</v>
+      </c>
+      <c r="C3654" t="n">
+        <v>320.2250061035156</v>
+      </c>
+      <c r="D3654" t="n">
+        <v>315.8099975585938</v>
+      </c>
+      <c r="E3654" t="n">
+        <v>321.1700134277344</v>
+      </c>
+      <c r="F3654" t="n">
+        <v>105716</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/CPAY.xlsx
+++ b/stock_predictor_ai/data/cleaned/CPAY.xlsx
@@ -63,7 +63,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3654"/>
+  <dimension ref="A1:F3649"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73429,106 +73431,6 @@
         <v>448700</v>
       </c>
     </row>
-    <row r="3650">
-      <c r="A3650" s="2" t="n">
-        <v>45841</v>
-      </c>
-      <c r="B3650" t="n">
-        <v>338.5</v>
-      </c>
-      <c r="C3650" t="n">
-        <v>339.5400085449219</v>
-      </c>
-      <c r="D3650" t="n">
-        <v>331.5400085449219</v>
-      </c>
-      <c r="E3650" t="n">
-        <v>335.5799865722656</v>
-      </c>
-      <c r="F3650" t="n">
-        <v>54000</v>
-      </c>
-    </row>
-    <row r="3651">
-      <c r="A3651" s="2" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B3651" t="n">
-        <v>333.7799987792969</v>
-      </c>
-      <c r="C3651" t="n">
-        <v>335.0350036621094</v>
-      </c>
-      <c r="D3651" t="n">
-        <v>333.0650024414062</v>
-      </c>
-      <c r="E3651" t="n">
-        <v>334.0199890136719</v>
-      </c>
-      <c r="F3651" t="n">
-        <v>9343</v>
-      </c>
-    </row>
-    <row r="3652">
-      <c r="A3652" s="2" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B3652" t="n">
-        <v>319.6099853515625</v>
-      </c>
-      <c r="C3652" t="n">
-        <v>326.4100036621094</v>
-      </c>
-      <c r="D3652" t="n">
-        <v>319.4200134277344</v>
-      </c>
-      <c r="E3652" t="n">
-        <v>326.3999938964844</v>
-      </c>
-      <c r="F3652" t="n">
-        <v>384100</v>
-      </c>
-    </row>
-    <row r="3653">
-      <c r="A3653" s="2" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B3653" t="n">
-        <v>333.8349914550781</v>
-      </c>
-      <c r="C3653" t="n">
-        <v>334.3049926757812</v>
-      </c>
-      <c r="D3653" t="n">
-        <v>331.2200012207031</v>
-      </c>
-      <c r="E3653" t="n">
-        <v>334.6600036621094</v>
-      </c>
-      <c r="F3653" t="n">
-        <v>26137</v>
-      </c>
-    </row>
-    <row r="3654">
-      <c r="A3654" s="2" t="n">
-        <v>45902</v>
-      </c>
-      <c r="B3654" t="n">
-        <v>318.1700134277344</v>
-      </c>
-      <c r="C3654" t="n">
-        <v>320.2250061035156</v>
-      </c>
-      <c r="D3654" t="n">
-        <v>315.8099975585938</v>
-      </c>
-      <c r="E3654" t="n">
-        <v>321.1700134277344</v>
-      </c>
-      <c r="F3654" t="n">
-        <v>105716</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
